--- a/runs/run192/NotionalETEOutput192.xlsx
+++ b/runs/run192/NotionalETEOutput192.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER0_State_Update</t>
+    <t>Missile_ANGERMAX0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0_140.MISSILE_BRAVER0_140</t>
+    <t>MISSILE_ANGERMAX0_92.MISSILE_ANGERMAX0_92</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0</t>
+    <t>MISSILE_ANGERMAX0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1493.152778353762</v>
+        <v>-1480.12257123734</v>
       </c>
       <c r="J2">
-        <v>2064.919500811406</v>
+        <v>1979.251792296355</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1419.585865751702</v>
+        <v>-1416.633350640449</v>
       </c>
       <c r="J3">
-        <v>1916.888265712197</v>
+        <v>1976.716074613465</v>
       </c>
       <c r="K3">
-        <v>306.1832393614953</v>
+        <v>290.6698630078428</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1414.042103540132</v>
+        <v>-1377.709504590142</v>
       </c>
       <c r="J4">
-        <v>1829.759521572191</v>
+        <v>1876.622247799778</v>
       </c>
       <c r="K4">
-        <v>617.5972592535992</v>
+        <v>588.6457094829593</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1459.394890772841</v>
+        <v>-1475.126703162627</v>
       </c>
       <c r="J5">
-        <v>1936.592064379996</v>
+        <v>1929.414338560912</v>
       </c>
       <c r="K5">
-        <v>865.8075453156604</v>
+        <v>891.8526104738327</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1364.180917632639</v>
+        <v>-1405.977367313169</v>
       </c>
       <c r="J6">
-        <v>1784.482042580932</v>
+        <v>1789.101911310217</v>
       </c>
       <c r="K6">
-        <v>1167.590511193706</v>
+        <v>1169.019947245154</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1301.410982998059</v>
+        <v>-1306.814634620135</v>
       </c>
       <c r="J7">
-        <v>1812.180373604078</v>
+        <v>1827.039857048799</v>
       </c>
       <c r="K7">
-        <v>1339.134600590722</v>
+        <v>1404.40994451603</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1373.03049808308</v>
+        <v>-1344.565856241791</v>
       </c>
       <c r="J8">
-        <v>1725.588476882773</v>
+        <v>1722.745661301379</v>
       </c>
       <c r="K8">
-        <v>1539.602256510427</v>
+        <v>1521.701594824871</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-100.9419447629024</v>
+        <v>-97.62852650835916</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1272.331594797618</v>
+        <v>-1278.395258838339</v>
       </c>
       <c r="J9">
-        <v>1667.12170796195</v>
+        <v>1579.551237793101</v>
       </c>
       <c r="K9">
-        <v>1784.808335760684</v>
+        <v>1754.508375938586</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>212.3118761477133</v>
+        <v>225.6991880725827</v>
       </c>
       <c r="G10">
-        <v>-79.54917391015215</v>
+        <v>-85.60431243368978</v>
       </c>
       <c r="H10">
-        <v>834.0114840167553</v>
+        <v>829.9730135244637</v>
       </c>
       <c r="I10">
-        <v>-1217.151016653006</v>
+        <v>-1190.729665664155</v>
       </c>
       <c r="J10">
-        <v>1642.633271445566</v>
+        <v>1569.874677838928</v>
       </c>
       <c r="K10">
-        <v>1937.244009381158</v>
+        <v>2072.583309576799</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>176.6811106005864</v>
+        <v>170.3495305362916</v>
       </c>
       <c r="G11">
-        <v>-66.43225098550418</v>
+        <v>-67.12395141386672</v>
       </c>
       <c r="H11">
-        <v>1047.763885479827</v>
+        <v>1088.449347862625</v>
       </c>
       <c r="I11">
-        <v>-1255.703472668094</v>
+        <v>-1251.240976148239</v>
       </c>
       <c r="J11">
-        <v>1523.476629827833</v>
+        <v>1494.677238436963</v>
       </c>
       <c r="K11">
-        <v>2081.535443153921</v>
+        <v>2252.38844224014</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.0620706608583</v>
+        <v>144.8863200807049</v>
       </c>
       <c r="G12">
-        <v>-48.04602381137298</v>
+        <v>-48.20138410704311</v>
       </c>
       <c r="H12">
-        <v>1188.609216548323</v>
+        <v>1139.423828040032</v>
       </c>
       <c r="I12">
-        <v>-1117.412070438663</v>
+        <v>-1153.006880352646</v>
       </c>
       <c r="J12">
-        <v>1492.712843700742</v>
+        <v>1461.936707602841</v>
       </c>
       <c r="K12">
-        <v>2303.773384728336</v>
+        <v>2304.143361877435</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.0755412857555</v>
+        <v>123.5968693778237</v>
       </c>
       <c r="G13">
-        <v>-32.48839290645135</v>
+        <v>-32.27715382792024</v>
       </c>
       <c r="H13">
-        <v>1236.878806693007</v>
+        <v>1207.503490976581</v>
       </c>
       <c r="I13">
-        <v>-1166.581677468255</v>
+        <v>-1085.469166810572</v>
       </c>
       <c r="J13">
-        <v>1406.456070254362</v>
+        <v>1420.131383036922</v>
       </c>
       <c r="K13">
-        <v>2574.612354459575</v>
+        <v>2538.697619219849</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>114.9518730798651</v>
+        <v>108.6555557288034</v>
       </c>
       <c r="G14">
-        <v>-16.97412458534779</v>
+        <v>-16.89045065316564</v>
       </c>
       <c r="H14">
-        <v>1300.466485773338</v>
+        <v>1390.258782665084</v>
       </c>
       <c r="I14">
-        <v>-1128.864511985769</v>
+        <v>-1102.869988885931</v>
       </c>
       <c r="J14">
-        <v>1414.18460112993</v>
+        <v>1397.74775619111</v>
       </c>
       <c r="K14">
-        <v>2560.731817800159</v>
+        <v>2728.653714057758</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.535016892218</v>
+        <v>104.5862679780305</v>
       </c>
       <c r="G15">
-        <v>-0.8886367496844866</v>
+        <v>-0.8869781043934103</v>
       </c>
       <c r="H15">
-        <v>1329.753987004675</v>
+        <v>1409.589284849797</v>
       </c>
       <c r="I15">
-        <v>-1005.983846951602</v>
+        <v>-1066.881593511935</v>
       </c>
       <c r="J15">
-        <v>1335.270557423198</v>
+        <v>1312.12512862423</v>
       </c>
       <c r="K15">
-        <v>2875.260263728772</v>
+        <v>2806.026589296298</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.15526499867491</v>
+        <v>96.77694177384707</v>
       </c>
       <c r="G16">
-        <v>15.82847067329047</v>
+        <v>16.22932778852157</v>
       </c>
       <c r="H16">
-        <v>1466.302770902324</v>
+        <v>1434.262550667025</v>
       </c>
       <c r="I16">
-        <v>-999.2791153575484</v>
+        <v>-981.6765990751459</v>
       </c>
       <c r="J16">
-        <v>1268.453502118645</v>
+        <v>1277.970986524198</v>
       </c>
       <c r="K16">
-        <v>2895.86807087284</v>
+        <v>2774.558577220728</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.30814565260476</v>
+        <v>83.97784653532356</v>
       </c>
       <c r="G17">
-        <v>30.68917113305029</v>
+        <v>31.00553463328667</v>
       </c>
       <c r="H17">
-        <v>1490.437882515609</v>
+        <v>1489.636631629798</v>
       </c>
       <c r="I17">
-        <v>-958.8492121418907</v>
+        <v>-945.4048272712946</v>
       </c>
       <c r="J17">
-        <v>1273.369914301845</v>
+        <v>1300.733075373789</v>
       </c>
       <c r="K17">
-        <v>3026.575394849572</v>
+        <v>3014.901035704855</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.814716930801</v>
+        <v>81.74989608329118</v>
       </c>
       <c r="G18">
-        <v>49.29640803674461</v>
+        <v>49.27441986391141</v>
       </c>
       <c r="H18">
-        <v>1550.124533274424</v>
+        <v>1504.355850074184</v>
       </c>
       <c r="I18">
-        <v>-966.4324913404831</v>
+        <v>-954.8025933124858</v>
       </c>
       <c r="J18">
-        <v>1268.129477111429</v>
+        <v>1255.685693711703</v>
       </c>
       <c r="K18">
-        <v>2996.053579755066</v>
+        <v>3153.936014175366</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.31898849002187</v>
+        <v>75.75984893083186</v>
       </c>
       <c r="G19">
-        <v>62.15450803801667</v>
+        <v>64.34682741199993</v>
       </c>
       <c r="H19">
-        <v>1572.407615295839</v>
+        <v>1581.083918960888</v>
       </c>
       <c r="I19">
-        <v>-861.8922520944461</v>
+        <v>-922.2807497186888</v>
       </c>
       <c r="J19">
-        <v>1125.168986888016</v>
+        <v>1223.888349740482</v>
       </c>
       <c r="K19">
-        <v>3225.030683815261</v>
+        <v>3249.199373997215</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.84454210368411</v>
+        <v>75.15391444963113</v>
       </c>
       <c r="G20">
-        <v>81.86107883279772</v>
+        <v>82.56606224552657</v>
       </c>
       <c r="H20">
-        <v>1627.568900334744</v>
+        <v>1550.873945268345</v>
       </c>
       <c r="I20">
-        <v>-803.4963381799738</v>
+        <v>-870.2689426519318</v>
       </c>
       <c r="J20">
-        <v>1135.669914302443</v>
+        <v>1138.534252677002</v>
       </c>
       <c r="K20">
-        <v>3048.412501194368</v>
+        <v>3144.771722817839</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.25511853105591</v>
+        <v>74.15416638932255</v>
       </c>
       <c r="G21">
-        <v>97.83073945881833</v>
+        <v>99.51973969121194</v>
       </c>
       <c r="H21">
-        <v>1556.718026325212</v>
+        <v>1643.378046772883</v>
       </c>
       <c r="I21">
-        <v>-810.5091297837263</v>
+        <v>-822.6892378057698</v>
       </c>
       <c r="J21">
-        <v>1030.526036917589</v>
+        <v>1088.777147981636</v>
       </c>
       <c r="K21">
-        <v>3327.57464344671</v>
+        <v>3114.477881125511</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.29604156691695</v>
+        <v>67.93457357426404</v>
       </c>
       <c r="G22">
-        <v>119.0318150801776</v>
+        <v>113.2133421853917</v>
       </c>
       <c r="H22">
-        <v>1539.04904890018</v>
+        <v>1688.01839855469</v>
       </c>
       <c r="I22">
-        <v>-778.2532164797386</v>
+        <v>-740.8077975749791</v>
       </c>
       <c r="J22">
-        <v>1073.066105122699</v>
+        <v>1019.601257847575</v>
       </c>
       <c r="K22">
-        <v>3058.730254906639</v>
+        <v>3039.655051866037</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.79687870815591</v>
+        <v>63.87254604895725</v>
       </c>
       <c r="G23">
-        <v>126.2614774150136</v>
+        <v>133.6144997788184</v>
       </c>
       <c r="H23">
-        <v>1564.372029660621</v>
+        <v>1565.4598213543</v>
       </c>
       <c r="I23">
-        <v>-671.0905041820519</v>
+        <v>-723.5093448594803</v>
       </c>
       <c r="J23">
-        <v>1004.090346139421</v>
+        <v>1019.056473165688</v>
       </c>
       <c r="K23">
-        <v>3307.08729895542</v>
+        <v>3297.335598601454</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.61739623931809</v>
+        <v>63.76449989442536</v>
       </c>
       <c r="G24">
-        <v>145.0877005390075</v>
+        <v>148.6011496928901</v>
       </c>
       <c r="H24">
-        <v>1596.938365351336</v>
+        <v>1690.434858640315</v>
       </c>
       <c r="I24">
-        <v>-674.5855894523986</v>
+        <v>-622.3628981552521</v>
       </c>
       <c r="J24">
-        <v>893.5132644394897</v>
+        <v>955.7931750359346</v>
       </c>
       <c r="K24">
-        <v>3319.68713607235</v>
+        <v>3306.250644704371</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.6792001339163</v>
+        <v>59.61664647924969</v>
       </c>
       <c r="G25">
-        <v>159.7974971480863</v>
+        <v>171.293467114373</v>
       </c>
       <c r="H25">
-        <v>1653.004408876483</v>
+        <v>1692.895092882414</v>
       </c>
       <c r="I25">
-        <v>-572.0724675023926</v>
+        <v>-578.2302404658197</v>
       </c>
       <c r="J25">
-        <v>923.8367543436287</v>
+        <v>896.4827897497565</v>
       </c>
       <c r="K25">
-        <v>3111.954895280047</v>
+        <v>3059.199013380631</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.45607033834442</v>
+        <v>60.83395041429432</v>
       </c>
       <c r="G26">
-        <v>172.2801081385655</v>
+        <v>188.4485623896492</v>
       </c>
       <c r="H26">
-        <v>1763.145333123596</v>
+        <v>1774.465871489138</v>
       </c>
       <c r="I26">
-        <v>-524.6819923367201</v>
+        <v>-540.4338693960227</v>
       </c>
       <c r="J26">
-        <v>841.8380690226568</v>
+        <v>847.2911878478917</v>
       </c>
       <c r="K26">
-        <v>3046.759498167525</v>
+        <v>3118.718685065515</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.98842739544655</v>
+        <v>55.31799011363939</v>
       </c>
       <c r="G27">
-        <v>203.9868740560246</v>
+        <v>205.432684199936</v>
       </c>
       <c r="H27">
-        <v>1713.467994294834</v>
+        <v>1631.447336822881</v>
       </c>
       <c r="I27">
-        <v>-510.5467886425383</v>
+        <v>-504.4027421497033</v>
       </c>
       <c r="J27">
-        <v>766.8861945613696</v>
+        <v>749.2682127227808</v>
       </c>
       <c r="K27">
-        <v>3181.783599466265</v>
+        <v>3125.72397192554</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.50171291772067</v>
+        <v>58.193963663098</v>
       </c>
       <c r="G28">
-        <v>216.8725292339443</v>
+        <v>213.8977009458867</v>
       </c>
       <c r="H28">
-        <v>1700.278980403198</v>
+        <v>1710.417243998612</v>
       </c>
       <c r="I28">
-        <v>-423.3750904801614</v>
+        <v>-437.8810709113162</v>
       </c>
       <c r="J28">
-        <v>751.539248618512</v>
+        <v>747.9868303821593</v>
       </c>
       <c r="K28">
-        <v>2959.799130064332</v>
+        <v>2973.005747802139</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.89752265986786</v>
+        <v>53.93647239833246</v>
       </c>
       <c r="G29">
-        <v>239.5902126542542</v>
+        <v>224.6698752912909</v>
       </c>
       <c r="H29">
-        <v>1772.589186826414</v>
+        <v>1727.167286629359</v>
       </c>
       <c r="I29">
-        <v>-387.5399912577272</v>
+        <v>-373.8789043330885</v>
       </c>
       <c r="J29">
-        <v>713.7851276019791</v>
+        <v>652.697296081318</v>
       </c>
       <c r="K29">
-        <v>2811.492041804852</v>
+        <v>2874.867827180153</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.47516958283879</v>
+        <v>55.30153790903998</v>
       </c>
       <c r="G30">
-        <v>243.2936282912895</v>
+        <v>258.5384307361774</v>
       </c>
       <c r="H30">
-        <v>1688.199867662564</v>
+        <v>1824.848505803357</v>
       </c>
       <c r="I30">
-        <v>-318.7835157175172</v>
+        <v>-330.7351634803771</v>
       </c>
       <c r="J30">
-        <v>646.8709698248936</v>
+        <v>623.8518672864309</v>
       </c>
       <c r="K30">
-        <v>2832.223245799654</v>
+        <v>2846.651183222684</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.61127475639868</v>
+        <v>50.9434248087542</v>
       </c>
       <c r="G31">
-        <v>273.9731798458284</v>
+        <v>268.3277964310316</v>
       </c>
       <c r="H31">
-        <v>1766.17987473538</v>
+        <v>1804.262146210704</v>
       </c>
       <c r="I31">
-        <v>-270.1293225799692</v>
+        <v>-267.4857897254734</v>
       </c>
       <c r="J31">
-        <v>564.7555738076633</v>
+        <v>588.0991924417871</v>
       </c>
       <c r="K31">
-        <v>2586.414327620012</v>
+        <v>2731.43249912198</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.84841410696126</v>
+        <v>51.6656733276585</v>
       </c>
       <c r="G32">
-        <v>290.2286127732771</v>
+        <v>268.4024134104155</v>
       </c>
       <c r="H32">
-        <v>1814.168504559563</v>
+        <v>1701.469433685817</v>
       </c>
       <c r="I32">
-        <v>-210.2027829513956</v>
+        <v>-200.4817591357746</v>
       </c>
       <c r="J32">
-        <v>537.9002323124964</v>
+        <v>550.1195024695505</v>
       </c>
       <c r="K32">
-        <v>2467.288613793863</v>
+        <v>2567.640833954821</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.2460480819632</v>
+        <v>51.29879412912226</v>
       </c>
       <c r="G33">
-        <v>291.5758800524482</v>
+        <v>297.0450296964081</v>
       </c>
       <c r="H33">
-        <v>1855.335803546208</v>
+        <v>1819.654073209622</v>
       </c>
       <c r="I33">
-        <v>-143.6008391131499</v>
+        <v>-146.1725258757696</v>
       </c>
       <c r="J33">
-        <v>513.548398876924</v>
+        <v>510.5241809290725</v>
       </c>
       <c r="K33">
-        <v>2409.056129168385</v>
+        <v>2479.786965307567</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.15843747238059</v>
+        <v>49.121701855384</v>
       </c>
       <c r="G34">
-        <v>320.1327329722312</v>
+        <v>309.8199071274634</v>
       </c>
       <c r="H34">
-        <v>1861.037911159398</v>
+        <v>1723.368249470813</v>
       </c>
       <c r="I34">
-        <v>-85.21860347605563</v>
+        <v>-86.74570608793013</v>
       </c>
       <c r="J34">
-        <v>439.3075488268944</v>
+        <v>452.2521907504871</v>
       </c>
       <c r="K34">
-        <v>2253.992014246511</v>
+        <v>2297.226200227091</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.08600039960013</v>
+        <v>50.08189651070324</v>
       </c>
       <c r="G35">
-        <v>339.2405561995315</v>
+        <v>319.6915108027798</v>
       </c>
       <c r="H35">
-        <v>1830.684859541973</v>
+        <v>1812.762677608522</v>
       </c>
       <c r="I35">
-        <v>-19.25944865484668</v>
+        <v>-18.07004962508575</v>
       </c>
       <c r="J35">
-        <v>395.3061970793281</v>
+        <v>386.3489142118645</v>
       </c>
       <c r="K35">
-        <v>2105.209224684593</v>
+        <v>2114.780617422595</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.20122000991976</v>
+        <v>48.01026813752482</v>
       </c>
       <c r="G36">
-        <v>342.8300955757211</v>
+        <v>355.1006378824345</v>
       </c>
       <c r="H36">
-        <v>1760.748354322152</v>
+        <v>1854.008259974113</v>
       </c>
       <c r="I36">
-        <v>47.71745015004974</v>
+        <v>46.90797085055505</v>
       </c>
       <c r="J36">
-        <v>340.975399168235</v>
+        <v>353.9823210480375</v>
       </c>
       <c r="K36">
-        <v>1909.16467251172</v>
+        <v>1756.178635290181</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.38293438619455</v>
+        <v>46.14629946949646</v>
       </c>
       <c r="G37">
-        <v>377.8779759010845</v>
+        <v>370.8582281013634</v>
       </c>
       <c r="H37">
-        <v>1872.906261647471</v>
+        <v>1919.921840173957</v>
       </c>
       <c r="I37">
-        <v>116.715385372861</v>
+        <v>119.2242846893664</v>
       </c>
       <c r="J37">
-        <v>309.1084901988158</v>
+        <v>299.344271611189</v>
       </c>
       <c r="K37">
-        <v>1604.057076674934</v>
+        <v>1658.067711068451</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.27579454728431</v>
+        <v>44.47389003033308</v>
       </c>
       <c r="G38">
-        <v>364.5448355407776</v>
+        <v>387.5059473497715</v>
       </c>
       <c r="H38">
-        <v>1846.028947609265</v>
+        <v>1863.356584732277</v>
       </c>
       <c r="I38">
-        <v>190.2412919438041</v>
+        <v>184.9191602027915</v>
       </c>
       <c r="J38">
-        <v>238.1666036592865</v>
+        <v>257.3731773366433</v>
       </c>
       <c r="K38">
-        <v>1367.526169850886</v>
+        <v>1413.573221795389</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>42.95913477660462</v>
+        <v>46.12477169887536</v>
       </c>
       <c r="G39">
-        <v>408.8744028123263</v>
+        <v>386.6224604828404</v>
       </c>
       <c r="H39">
-        <v>1907.051965523025</v>
+        <v>1944.935314252843</v>
       </c>
       <c r="I39">
-        <v>244.5782088744864</v>
+        <v>257.4867182694112</v>
       </c>
       <c r="J39">
-        <v>197.3141311892414</v>
+        <v>208.7986263474553</v>
       </c>
       <c r="K39">
-        <v>1115.15293156027</v>
+        <v>1183.048283925364</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.98899231726507</v>
+        <v>46.12760781851937</v>
       </c>
       <c r="G40">
-        <v>393.778177984608</v>
+        <v>415.1057276681278</v>
       </c>
       <c r="H40">
-        <v>1871.783697929895</v>
+        <v>1871.548091252663</v>
       </c>
       <c r="I40">
-        <v>336.3281139603554</v>
+        <v>331.3672438344788</v>
       </c>
       <c r="J40">
-        <v>147.5217560375178</v>
+        <v>146.234132211526</v>
       </c>
       <c r="K40">
-        <v>935.6847979474709</v>
+        <v>931.2404565334456</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.68881741561575</v>
+        <v>44.40059282660818</v>
       </c>
       <c r="G41">
-        <v>437.45052405148</v>
+        <v>434.4020118441356</v>
       </c>
       <c r="H41">
-        <v>1849.338411980828</v>
+        <v>1908.325708720322</v>
       </c>
       <c r="I41">
-        <v>419.539956641842</v>
+        <v>415.5351610651597</v>
       </c>
       <c r="J41">
-        <v>101.9849197516893</v>
+        <v>102.8985065083265</v>
       </c>
       <c r="K41">
-        <v>640.3571399251878</v>
+        <v>606.5930237642444</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.00461387877665</v>
+        <v>44.32025791741722</v>
       </c>
       <c r="G42">
-        <v>443.6156911366083</v>
+        <v>445.721066893535</v>
       </c>
       <c r="H42">
-        <v>1975.808668885301</v>
+        <v>1800.468161332465</v>
       </c>
       <c r="I42">
-        <v>483.0044481758634</v>
+        <v>455.5953376954958</v>
       </c>
       <c r="J42">
-        <v>55.51610526543271</v>
+        <v>51.80849237593849</v>
       </c>
       <c r="K42">
-        <v>349.2558490477546</v>
+        <v>339.5120928500552</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.62774231459147</v>
+        <v>40.37877427821743</v>
       </c>
       <c r="G43">
-        <v>466.6865689872067</v>
+        <v>476.7013458213466</v>
       </c>
       <c r="H43">
-        <v>1842.675590658117</v>
+        <v>1914.424238258991</v>
       </c>
       <c r="I43">
-        <v>534.5445140403383</v>
+        <v>556.5067814318421</v>
       </c>
       <c r="J43">
-        <v>5.260441490955643</v>
+        <v>5.060286765444505</v>
       </c>
       <c r="K43">
-        <v>32.50146332150116</v>
+        <v>32.30968376168767</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.44598454919108</v>
+        <v>42.97013264468166</v>
       </c>
       <c r="G44">
-        <v>497.805551609226</v>
+        <v>478.4053784875523</v>
       </c>
       <c r="H44">
-        <v>1883.140329318603</v>
+        <v>1829.7798347562</v>
       </c>
       <c r="I44">
-        <v>621.0045287630471</v>
+        <v>666.4819790318295</v>
       </c>
       <c r="J44">
-        <v>-43.30483691034593</v>
+        <v>-42.69823523601587</v>
       </c>
       <c r="K44">
-        <v>-290.6643561760513</v>
+        <v>-287.3080180412286</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.26808245924813</v>
+        <v>39.39590957764885</v>
       </c>
       <c r="G45">
-        <v>472.5801119587653</v>
+        <v>491.4871343311262</v>
       </c>
       <c r="H45">
-        <v>1905.727160264131</v>
+        <v>1878.227646416927</v>
       </c>
       <c r="I45">
-        <v>738.449515582786</v>
+        <v>715.2685809254642</v>
       </c>
       <c r="J45">
-        <v>-94.45392360033725</v>
+        <v>-95.0177065074418</v>
       </c>
       <c r="K45">
-        <v>-645.3544170130112</v>
+        <v>-602.9637007734837</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.65202990954035</v>
+        <v>41.96289963457085</v>
       </c>
       <c r="G46">
-        <v>489.809189310123</v>
+        <v>488.8500011732096</v>
       </c>
       <c r="H46">
-        <v>1831.105154392293</v>
+        <v>1851.034605084681</v>
       </c>
       <c r="I46">
-        <v>815.3873068002788</v>
+        <v>779.563232723799</v>
       </c>
       <c r="J46">
-        <v>-137.6521952764921</v>
+        <v>-136.2537533056035</v>
       </c>
       <c r="K46">
-        <v>-932.2190864102295</v>
+        <v>-1008.916750717707</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.58607560476686</v>
+        <v>40.73240949844713</v>
       </c>
       <c r="G47">
-        <v>523.9183760943363</v>
+        <v>501.8307561738871</v>
       </c>
       <c r="H47">
-        <v>1939.30462924424</v>
+        <v>1879.496533746561</v>
       </c>
       <c r="I47">
-        <v>896.1908836316403</v>
+        <v>930.6131256787208</v>
       </c>
       <c r="J47">
-        <v>-181.3229744876879</v>
+        <v>-195.0885079291385</v>
       </c>
       <c r="K47">
-        <v>-1380.63068166832</v>
+        <v>-1388.80044343394</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.00014448178157</v>
+        <v>38.96899968311655</v>
       </c>
       <c r="G48">
-        <v>526.2400825271625</v>
+        <v>560.3279121024502</v>
       </c>
       <c r="H48">
-        <v>1976.113644767021</v>
+        <v>1988.876444205953</v>
       </c>
       <c r="I48">
-        <v>976.9565221110997</v>
+        <v>1021.526052135908</v>
       </c>
       <c r="J48">
-        <v>-245.6719757093227</v>
+        <v>-235.2290231526822</v>
       </c>
       <c r="K48">
-        <v>-1725.816460012025</v>
+        <v>-1717.094825681347</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.67073355274269</v>
+        <v>39.94478852990894</v>
       </c>
       <c r="G49">
-        <v>585.1726407902736</v>
+        <v>560.9240794296271</v>
       </c>
       <c r="H49">
-        <v>1883.66565884605</v>
+        <v>1992.302190084034</v>
       </c>
       <c r="I49">
-        <v>1035.654639917806</v>
+        <v>1065.655356302003</v>
       </c>
       <c r="J49">
-        <v>-300.3278905168521</v>
+        <v>-276.6155221635876</v>
       </c>
       <c r="K49">
-        <v>-2106.912732972625</v>
+        <v>-2080.54858643774</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.54569547175022</v>
+        <v>38.64526036340693</v>
       </c>
       <c r="G50">
-        <v>599.353309234888</v>
+        <v>565.555229679078</v>
       </c>
       <c r="H50">
-        <v>1886.651659537881</v>
+        <v>1925.330119042963</v>
       </c>
       <c r="I50">
-        <v>1210.326090972097</v>
+        <v>1215.876075645276</v>
       </c>
       <c r="J50">
-        <v>-344.1551257653019</v>
+        <v>-327.1684815454211</v>
       </c>
       <c r="K50">
-        <v>-2398.043071232827</v>
+        <v>-2452.710137381268</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.81811410257154</v>
+        <v>39.65612012899361</v>
       </c>
       <c r="G51">
-        <v>601.6908596965478</v>
+        <v>597.281417787084</v>
       </c>
       <c r="H51">
-        <v>2008.150242848625</v>
+        <v>1933.77642635864</v>
       </c>
       <c r="I51">
-        <v>1265.729128375526</v>
+        <v>1231.085093824697</v>
       </c>
       <c r="J51">
-        <v>-393.2831106529806</v>
+        <v>-383.0256708894003</v>
       </c>
       <c r="K51">
-        <v>-3011.503060562575</v>
+        <v>-2794.046696077638</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.11429434485003</v>
+        <v>36.82872049774358</v>
       </c>
       <c r="G52">
-        <v>616.7799067599263</v>
+        <v>638.4854196091011</v>
       </c>
       <c r="H52">
-        <v>2041.887121923394</v>
+        <v>2063.247244918929</v>
       </c>
       <c r="I52">
-        <v>1422.051819251584</v>
+        <v>1348.179997089698</v>
       </c>
       <c r="J52">
-        <v>-436.2367352318652</v>
+        <v>-432.7298434835058</v>
       </c>
       <c r="K52">
-        <v>-3296.045163290455</v>
+        <v>-3505.074956263304</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.35351791889335</v>
+        <v>37.87413111831015</v>
       </c>
       <c r="G53">
-        <v>611.6751179788181</v>
+        <v>634.1968209461005</v>
       </c>
       <c r="H53">
-        <v>1984.927015102343</v>
+        <v>1878.972208077622</v>
       </c>
       <c r="I53">
-        <v>1437.562175457193</v>
+        <v>1445.906663559114</v>
       </c>
       <c r="J53">
-        <v>-480.0936710941986</v>
+        <v>-494.9260276015663</v>
       </c>
       <c r="K53">
-        <v>-3987.351256444226</v>
+        <v>-3747.593638301456</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.03975884531447</v>
+        <v>38.48980697572549</v>
       </c>
       <c r="G54">
-        <v>616.8737488016154</v>
+        <v>619.825091037467</v>
       </c>
       <c r="H54">
-        <v>1980.888990471823</v>
+        <v>1925.09213282145</v>
       </c>
       <c r="I54">
-        <v>1495.168435219215</v>
+        <v>1624.304387480425</v>
       </c>
       <c r="J54">
-        <v>-509.1825396411123</v>
+        <v>-507.0410019467035</v>
       </c>
       <c r="K54">
-        <v>-4192.618264707948</v>
+        <v>-4156.966381027844</v>
       </c>
     </row>
   </sheetData>
